--- a/Excel/Customer.xlsx
+++ b/Excel/Customer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cool Yeah\Semester 3\SBD\FP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cool Yeah\Semester 3\SBD\FP_SBD\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E63915-1577-411D-80ED-E89D3E2E6810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF3D72-18F9-4A00-9B7E-A1E56603FFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{0038FCCB-7473-41C7-9A7A-7CB66BA5B45D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Bintang Cinta</t>
   </si>
@@ -186,19 +186,236 @@
   </si>
   <si>
     <t>Mega Kharisma</t>
+  </si>
+  <si>
+    <t>CS001</t>
+  </si>
+  <si>
+    <t>CS002</t>
+  </si>
+  <si>
+    <t>CS003</t>
+  </si>
+  <si>
+    <t>CS004</t>
+  </si>
+  <si>
+    <t>CS005</t>
+  </si>
+  <si>
+    <t>CS006</t>
+  </si>
+  <si>
+    <t>CS007</t>
+  </si>
+  <si>
+    <t>CS008</t>
+  </si>
+  <si>
+    <t>CS009</t>
+  </si>
+  <si>
+    <t>CS010</t>
+  </si>
+  <si>
+    <t>CS011</t>
+  </si>
+  <si>
+    <t>CS012</t>
+  </si>
+  <si>
+    <t>CS013</t>
+  </si>
+  <si>
+    <t>CS014</t>
+  </si>
+  <si>
+    <t>CS015</t>
+  </si>
+  <si>
+    <t>CS016</t>
+  </si>
+  <si>
+    <t>CS017</t>
+  </si>
+  <si>
+    <t>CS018</t>
+  </si>
+  <si>
+    <t>CS019</t>
+  </si>
+  <si>
+    <t>CS020</t>
+  </si>
+  <si>
+    <t>CS021</t>
+  </si>
+  <si>
+    <t>CS022</t>
+  </si>
+  <si>
+    <t>CS023</t>
+  </si>
+  <si>
+    <t>CS024</t>
+  </si>
+  <si>
+    <t>CS025</t>
+  </si>
+  <si>
+    <t>CS026</t>
+  </si>
+  <si>
+    <t>CS027</t>
+  </si>
+  <si>
+    <t>CS028</t>
+  </si>
+  <si>
+    <t>CS029</t>
+  </si>
+  <si>
+    <t>CS030</t>
+  </si>
+  <si>
+    <t>CS031</t>
+  </si>
+  <si>
+    <t>CS032</t>
+  </si>
+  <si>
+    <t>CS033</t>
+  </si>
+  <si>
+    <t>CS034</t>
+  </si>
+  <si>
+    <t>CS035</t>
+  </si>
+  <si>
+    <t>CS036</t>
+  </si>
+  <si>
+    <t>CS037</t>
+  </si>
+  <si>
+    <t>CS038</t>
+  </si>
+  <si>
+    <t>CS039</t>
+  </si>
+  <si>
+    <t>CS040</t>
+  </si>
+  <si>
+    <t>CS041</t>
+  </si>
+  <si>
+    <t>CS042</t>
+  </si>
+  <si>
+    <t>CS043</t>
+  </si>
+  <si>
+    <t>CS044</t>
+  </si>
+  <si>
+    <t>CS045</t>
+  </si>
+  <si>
+    <t>CS046</t>
+  </si>
+  <si>
+    <t>CS047</t>
+  </si>
+  <si>
+    <t>CS048</t>
+  </si>
+  <si>
+    <t>CS049</t>
+  </si>
+  <si>
+    <t>CS050</t>
+  </si>
+  <si>
+    <t>MB001</t>
+  </si>
+  <si>
+    <t>MB002</t>
+  </si>
+  <si>
+    <t>MB003</t>
+  </si>
+  <si>
+    <t>MB006</t>
+  </si>
+  <si>
+    <t>MB009</t>
+  </si>
+  <si>
+    <t>MB013</t>
+  </si>
+  <si>
+    <t>MB014</t>
+  </si>
+  <si>
+    <t>MB015</t>
+  </si>
+  <si>
+    <t>MB016</t>
+  </si>
+  <si>
+    <t>MB004</t>
+  </si>
+  <si>
+    <t>MB005</t>
+  </si>
+  <si>
+    <t>MB007</t>
+  </si>
+  <si>
+    <t>MB008</t>
+  </si>
+  <si>
+    <t>MB010</t>
+  </si>
+  <si>
+    <t>MB011</t>
+  </si>
+  <si>
+    <t>MB012</t>
+  </si>
+  <si>
+    <t>MB017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +426,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,15 +434,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{77E34C0E-596C-4A93-B9D3-13BA0F3D1011}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,265 +775,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871F35DB-5D5B-4A29-8860-023DCC5D8CA4}">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D31" sqref="D1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
+      <c r="C50" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
